--- a/Data/Population density 2012-2023.xlsx
+++ b/Data/Population density 2012-2023.xlsx
@@ -572,14 +572,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="9.0" state="frozen" topLeftCell="B10" activePane="bottomRight"/>
+      <pane xSplit="2.0" ySplit="9.0" state="frozen" topLeftCell="C10" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.399999618530273" customHeight="true"/>
   <cols>
-    <col min="1" max="1" width="29.8828125" customWidth="true"/>
-    <col min="2" max="2" width="9.9609375" customWidth="true"/>
+    <col min="1" max="1" width="10.95703125" customWidth="true"/>
+    <col min="2" max="2" width="29.8828125" customWidth="true"/>
     <col min="3" max="3" width="9.9609375" customWidth="true"/>
     <col min="4" max="4" width="9.9609375" customWidth="true"/>
     <col min="5" max="5" width="9.9609375" customWidth="true"/>
@@ -591,12 +591,13 @@
     <col min="11" max="11" width="9.9609375" customWidth="true"/>
     <col min="12" max="12" width="9.9609375" customWidth="true"/>
     <col min="13" max="13" width="9.9609375" customWidth="true"/>
+    <col min="14" max="14" width="9.9609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Data extracted on 17/11/2025 10:34:12 from [ESTAT]</t>
+          <t>Data extracted on 17/11/2025 10:45:12 from [ESTAT]</t>
         </is>
       </c>
     </row>
@@ -658,62 +659,67 @@
           <t>TIME</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="I8" s="4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="L8" s="4" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -722,14 +728,14 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>GEO (Codes)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
           <t>GEO (Labels)</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
           <t/>
@@ -781,6 +787,11 @@
         </is>
       </c>
       <c r="M9" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N9" s="9" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -789,296 +800,328 @@
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
+          <t>DE11</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="B10" s="20" t="n">
+      <c r="C10" s="20" t="n">
         <v>372.8</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="D10" s="20" t="n">
         <v>375.1</v>
       </c>
-      <c r="D10" s="29" t="n">
+      <c r="E10" s="29" t="n">
         <v>378.0</v>
       </c>
-      <c r="E10" s="20" t="n">
+      <c r="F10" s="20" t="n">
         <v>382.6</v>
       </c>
-      <c r="F10" s="20" t="n">
+      <c r="G10" s="20" t="n">
         <v>387.1</v>
       </c>
-      <c r="G10" s="20" t="n">
+      <c r="H10" s="20" t="n">
         <v>389.8</v>
       </c>
-      <c r="H10" s="29" t="n">
+      <c r="I10" s="29" t="n">
         <v>392.0</v>
-      </c>
-      <c r="I10" s="20" t="n">
-        <v>393.3</v>
       </c>
       <c r="J10" s="20" t="n">
         <v>393.3</v>
       </c>
       <c r="K10" s="20" t="n">
+        <v>393.3</v>
+      </c>
+      <c r="L10" s="20" t="n">
         <v>393.7</v>
       </c>
-      <c r="L10" s="20" t="n">
+      <c r="M10" s="20" t="n">
         <v>393.1</v>
       </c>
-      <c r="M10" s="20" t="n">
+      <c r="N10" s="20" t="n">
         <v>393.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
+          <t>DE12</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
           <t>Karlsruhe</t>
         </is>
       </c>
-      <c r="B11" s="19" t="n">
+      <c r="C11" s="19" t="n">
         <v>387.2</v>
       </c>
-      <c r="C11" s="19" t="n">
+      <c r="D11" s="19" t="n">
         <v>389.5</v>
       </c>
-      <c r="D11" s="19" t="n">
+      <c r="E11" s="19" t="n">
         <v>392.1</v>
       </c>
-      <c r="E11" s="19" t="n">
+      <c r="F11" s="19" t="n">
         <v>396.4</v>
       </c>
-      <c r="F11" s="19" t="n">
+      <c r="G11" s="19" t="n">
         <v>403.9</v>
       </c>
-      <c r="G11" s="19" t="n">
+      <c r="H11" s="19" t="n">
         <v>406.3</v>
       </c>
-      <c r="H11" s="19" t="n">
+      <c r="I11" s="19" t="n">
         <v>408.2</v>
-      </c>
-      <c r="I11" s="19" t="n">
-        <v>409.3</v>
       </c>
       <c r="J11" s="19" t="n">
         <v>409.3</v>
       </c>
       <c r="K11" s="19" t="n">
+        <v>409.3</v>
+      </c>
+      <c r="L11" s="19" t="n">
         <v>409.5</v>
       </c>
-      <c r="L11" s="19" t="n">
+      <c r="M11" s="19" t="n">
         <v>411.4</v>
       </c>
-      <c r="M11" s="19" t="n">
+      <c r="N11" s="19" t="n">
         <v>413.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
+          <t>DE13</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
           <t>Freiburg</t>
         </is>
       </c>
-      <c r="B12" s="20" t="n">
+      <c r="C12" s="20" t="n">
         <v>230.5</v>
       </c>
-      <c r="C12" s="20" t="n">
+      <c r="D12" s="20" t="n">
         <v>231.7</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="E12" s="20" t="n">
         <v>233.4</v>
       </c>
-      <c r="E12" s="29" t="n">
+      <c r="F12" s="29" t="n">
         <v>236.0</v>
       </c>
-      <c r="F12" s="29" t="n">
+      <c r="G12" s="29" t="n">
         <v>241.0</v>
       </c>
-      <c r="G12" s="20" t="n">
+      <c r="H12" s="20" t="n">
         <v>242.6</v>
       </c>
-      <c r="H12" s="29" t="n">
+      <c r="I12" s="29" t="n">
         <v>244.0</v>
-      </c>
-      <c r="I12" s="20" t="n">
-        <v>244.9</v>
       </c>
       <c r="J12" s="20" t="n">
         <v>244.9</v>
       </c>
       <c r="K12" s="20" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="L12" s="20" t="n">
         <v>245.5</v>
       </c>
-      <c r="L12" s="20" t="n">
+      <c r="M12" s="20" t="n">
         <v>247.8</v>
       </c>
-      <c r="M12" s="20" t="n">
+      <c r="N12" s="20" t="n">
         <v>249.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
+          <t>DE14</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
           <t>Tübingen</t>
         </is>
       </c>
-      <c r="B13" s="19" t="n">
+      <c r="C13" s="19" t="n">
         <v>198.4</v>
       </c>
-      <c r="C13" s="19" t="n">
+      <c r="D13" s="19" t="n">
         <v>199.2</v>
       </c>
-      <c r="D13" s="19" t="n">
+      <c r="E13" s="19" t="n">
         <v>200.5</v>
       </c>
-      <c r="E13" s="19" t="n">
+      <c r="F13" s="19" t="n">
         <v>202.9</v>
       </c>
-      <c r="F13" s="19" t="n">
+      <c r="G13" s="19" t="n">
         <v>210.6</v>
       </c>
-      <c r="G13" s="25" t="n">
+      <c r="H13" s="25" t="n">
         <v>212.0</v>
       </c>
-      <c r="H13" s="19" t="n">
+      <c r="I13" s="19" t="n">
         <v>213.2</v>
-      </c>
-      <c r="I13" s="19" t="n">
-        <v>214.2</v>
       </c>
       <c r="J13" s="19" t="n">
         <v>214.2</v>
       </c>
       <c r="K13" s="19" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="L13" s="19" t="n">
         <v>214.9</v>
       </c>
-      <c r="L13" s="19" t="n">
+      <c r="M13" s="19" t="n">
         <v>216.7</v>
       </c>
-      <c r="M13" s="19" t="n">
+      <c r="N13" s="19" t="n">
         <v>218.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
+          <t>DE21</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
           <t>Oberbayern</t>
         </is>
       </c>
-      <c r="B14" s="20" t="n">
+      <c r="C14" s="20" t="n">
         <v>250.4</v>
       </c>
-      <c r="C14" s="20" t="n">
+      <c r="D14" s="20" t="n">
         <v>253.4</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="E14" s="20" t="n">
         <v>256.4</v>
       </c>
-      <c r="E14" s="20" t="n">
+      <c r="F14" s="20" t="n">
         <v>259.8</v>
       </c>
-      <c r="F14" s="20" t="n">
+      <c r="G14" s="20" t="n">
         <v>268.3</v>
       </c>
-      <c r="G14" s="20" t="n">
+      <c r="H14" s="20" t="n">
         <v>270.1</v>
       </c>
-      <c r="H14" s="20" t="n">
+      <c r="I14" s="20" t="n">
         <v>271.6</v>
-      </c>
-      <c r="I14" s="20" t="n">
-        <v>273.4</v>
       </c>
       <c r="J14" s="20" t="n">
         <v>273.4</v>
       </c>
       <c r="K14" s="20" t="n">
+        <v>273.4</v>
+      </c>
+      <c r="L14" s="20" t="n">
         <v>274.4</v>
       </c>
-      <c r="L14" s="20" t="n">
+      <c r="M14" s="20" t="n">
         <v>274.5</v>
       </c>
-      <c r="M14" s="20" t="n">
+      <c r="N14" s="20" t="n">
         <v>274.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
+          <t>DE22</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
           <t>Niederbayern</t>
         </is>
       </c>
-      <c r="B15" s="19" t="n">
+      <c r="C15" s="19" t="n">
         <v>114.1</v>
       </c>
-      <c r="C15" s="19" t="n">
+      <c r="D15" s="19" t="n">
         <v>114.8</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="E15" s="19" t="n">
         <v>115.5</v>
       </c>
-      <c r="E15" s="19" t="n">
+      <c r="F15" s="19" t="n">
         <v>116.7</v>
       </c>
-      <c r="F15" s="19" t="n">
+      <c r="G15" s="19" t="n">
         <v>118.5</v>
       </c>
-      <c r="G15" s="19" t="n">
+      <c r="H15" s="19" t="n">
         <v>119.4</v>
       </c>
-      <c r="H15" s="19" t="n">
+      <c r="I15" s="19" t="n">
         <v>120.3</v>
-      </c>
-      <c r="I15" s="25" t="n">
-        <v>121.0</v>
       </c>
       <c r="J15" s="25" t="n">
         <v>121.0</v>
       </c>
-      <c r="K15" s="19" t="n">
+      <c r="K15" s="25" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="L15" s="19" t="n">
         <v>121.5</v>
       </c>
-      <c r="L15" s="19" t="n">
+      <c r="M15" s="19" t="n">
         <v>121.8</v>
       </c>
-      <c r="M15" s="19" t="n">
+      <c r="N15" s="19" t="n">
         <v>121.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
+          <t>DE23</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
           <t>Oberpfalz</t>
         </is>
       </c>
-      <c r="B16" s="20" t="n">
+      <c r="C16" s="20" t="n">
         <v>110.8</v>
       </c>
-      <c r="C16" s="20" t="n">
+      <c r="D16" s="20" t="n">
         <v>111.1</v>
       </c>
-      <c r="D16" s="20" t="n">
+      <c r="E16" s="20" t="n">
         <v>111.5</v>
       </c>
-      <c r="E16" s="20" t="n">
+      <c r="F16" s="20" t="n">
         <v>112.2</v>
       </c>
-      <c r="F16" s="20" t="n">
+      <c r="G16" s="20" t="n">
         <v>113.6</v>
       </c>
-      <c r="G16" s="20" t="n">
+      <c r="H16" s="20" t="n">
         <v>114.2</v>
       </c>
-      <c r="H16" s="20" t="n">
+      <c r="I16" s="20" t="n">
         <v>114.8</v>
-      </c>
-      <c r="I16" s="20" t="n">
-        <v>115.2</v>
       </c>
       <c r="J16" s="20" t="n">
         <v>115.2</v>
       </c>
       <c r="K16" s="20" t="n">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="L16" s="20" t="n">
         <v>115.3</v>
@@ -1086,122 +1129,137 @@
       <c r="M16" s="20" t="n">
         <v>115.3</v>
       </c>
+      <c r="N16" s="20" t="n">
+        <v>115.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
+          <t>DE24</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
           <t>Oberfranken</t>
         </is>
       </c>
-      <c r="B17" s="19" t="n">
+      <c r="C17" s="19" t="n">
         <v>146.6</v>
       </c>
-      <c r="C17" s="19" t="n">
+      <c r="D17" s="19" t="n">
         <v>146.2</v>
       </c>
-      <c r="D17" s="25" t="n">
+      <c r="E17" s="25" t="n">
         <v>146.0</v>
       </c>
-      <c r="E17" s="19" t="n">
+      <c r="F17" s="19" t="n">
         <v>146.2</v>
       </c>
-      <c r="F17" s="25" t="n">
+      <c r="G17" s="25" t="n">
         <v>147.0</v>
       </c>
-      <c r="G17" s="19" t="n">
+      <c r="H17" s="19" t="n">
         <v>147.5</v>
       </c>
-      <c r="H17" s="19" t="n">
+      <c r="I17" s="19" t="n">
         <v>147.9</v>
-      </c>
-      <c r="I17" s="19" t="n">
-        <v>147.8</v>
       </c>
       <c r="J17" s="19" t="n">
         <v>147.8</v>
       </c>
       <c r="K17" s="19" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="L17" s="19" t="n">
         <v>147.4</v>
       </c>
-      <c r="L17" s="19" t="n">
+      <c r="M17" s="19" t="n">
         <v>146.4</v>
       </c>
-      <c r="M17" s="25" t="n">
+      <c r="N17" s="25" t="n">
         <v>146.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
+          <t>DE25</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
           <t>Mittelfranken</t>
         </is>
       </c>
-      <c r="B18" s="20" t="n">
+      <c r="C18" s="20" t="n">
         <v>233.7</v>
       </c>
-      <c r="C18" s="20" t="n">
+      <c r="D18" s="20" t="n">
         <v>235.1</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="E18" s="20" t="n">
         <v>236.3</v>
       </c>
-      <c r="E18" s="20" t="n">
+      <c r="F18" s="20" t="n">
         <v>238.4</v>
       </c>
-      <c r="F18" s="20" t="n">
+      <c r="G18" s="20" t="n">
         <v>241.8</v>
       </c>
-      <c r="G18" s="20" t="n">
+      <c r="H18" s="20" t="n">
         <v>243.3</v>
       </c>
-      <c r="H18" s="20" t="n">
+      <c r="I18" s="20" t="n">
         <v>244.7</v>
-      </c>
-      <c r="I18" s="20" t="n">
-        <v>245.7</v>
       </c>
       <c r="J18" s="20" t="n">
         <v>245.7</v>
       </c>
       <c r="K18" s="20" t="n">
+        <v>245.7</v>
+      </c>
+      <c r="L18" s="20" t="n">
         <v>246.1</v>
       </c>
-      <c r="L18" s="20" t="n">
+      <c r="M18" s="20" t="n">
         <v>246.7</v>
       </c>
-      <c r="M18" s="20" t="n">
+      <c r="N18" s="20" t="n">
         <v>247.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
+          <t>DE26</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
           <t>Unterfranken</t>
         </is>
       </c>
-      <c r="B19" s="19" t="n">
+      <c r="C19" s="19" t="n">
         <v>152.2</v>
       </c>
-      <c r="C19" s="19" t="n">
+      <c r="D19" s="19" t="n">
         <v>152.1</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="E19" s="19" t="n">
         <v>152.2</v>
       </c>
-      <c r="E19" s="19" t="n">
+      <c r="F19" s="19" t="n">
         <v>152.7</v>
       </c>
-      <c r="F19" s="19" t="n">
+      <c r="G19" s="19" t="n">
         <v>153.9</v>
       </c>
-      <c r="G19" s="19" t="n">
+      <c r="H19" s="19" t="n">
         <v>154.4</v>
       </c>
-      <c r="H19" s="19" t="n">
+      <c r="I19" s="19" t="n">
         <v>154.8</v>
-      </c>
-      <c r="I19" s="19" t="n">
-        <v>155.1</v>
       </c>
       <c r="J19" s="19" t="n">
         <v>155.1</v>
@@ -1210,339 +1268,379 @@
         <v>155.1</v>
       </c>
       <c r="L19" s="19" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="M19" s="19" t="n">
         <v>154.9</v>
       </c>
-      <c r="M19" s="19" t="n">
+      <c r="N19" s="19" t="n">
         <v>154.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
+          <t>DE27</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
           <t>Schwaben</t>
         </is>
       </c>
-      <c r="B20" s="20" t="n">
+      <c r="C20" s="20" t="n">
         <v>178.9</v>
       </c>
-      <c r="C20" s="20" t="n">
+      <c r="D20" s="20" t="n">
         <v>180.1</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="E20" s="20" t="n">
         <v>181.5</v>
       </c>
-      <c r="E20" s="20" t="n">
+      <c r="F20" s="20" t="n">
         <v>183.5</v>
       </c>
-      <c r="F20" s="20" t="n">
+      <c r="G20" s="20" t="n">
         <v>187.3</v>
       </c>
-      <c r="G20" s="20" t="n">
+      <c r="H20" s="20" t="n">
         <v>188.7</v>
       </c>
-      <c r="H20" s="20" t="n">
+      <c r="I20" s="20" t="n">
         <v>190.2</v>
-      </c>
-      <c r="I20" s="20" t="n">
-        <v>191.5</v>
       </c>
       <c r="J20" s="20" t="n">
         <v>191.5</v>
       </c>
       <c r="K20" s="20" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="L20" s="20" t="n">
         <v>192.5</v>
       </c>
-      <c r="L20" s="20" t="n">
+      <c r="M20" s="20" t="n">
         <v>193.3</v>
       </c>
-      <c r="M20" s="20" t="n">
+      <c r="N20" s="20" t="n">
         <v>193.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
+          <t>DE30</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
           <t>Berlin</t>
         </is>
       </c>
-      <c r="B21" s="19" t="n">
+      <c r="C21" s="19" t="n">
         <v>3757.3</v>
       </c>
-      <c r="C21" s="19" t="n">
+      <c r="D21" s="19" t="n">
         <v>3811.3</v>
       </c>
-      <c r="D21" s="19" t="n">
+      <c r="E21" s="19" t="n">
         <v>3867.4</v>
       </c>
-      <c r="E21" s="19" t="n">
+      <c r="F21" s="19" t="n">
         <v>3922.5</v>
       </c>
-      <c r="F21" s="19" t="n">
+      <c r="G21" s="19" t="n">
         <v>4193.2</v>
       </c>
-      <c r="G21" s="19" t="n">
+      <c r="H21" s="19" t="n">
         <v>4248.4</v>
       </c>
-      <c r="H21" s="19" t="n">
+      <c r="I21" s="19" t="n">
         <v>4289.8</v>
-      </c>
-      <c r="I21" s="19" t="n">
-        <v>4322.9</v>
       </c>
       <c r="J21" s="19" t="n">
         <v>4322.9</v>
       </c>
       <c r="K21" s="19" t="n">
+        <v>4322.9</v>
+      </c>
+      <c r="L21" s="19" t="n">
         <v>4334.3</v>
       </c>
-      <c r="L21" s="19" t="n">
+      <c r="M21" s="19" t="n">
         <v>4320.5</v>
       </c>
-      <c r="M21" s="19" t="n">
+      <c r="N21" s="19" t="n">
         <v>4311.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
+          <t>DE40</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
           <t>Brandenburg</t>
         </is>
-      </c>
-      <c r="B22" s="20" t="n">
-        <v>83.1</v>
       </c>
       <c r="C22" s="20" t="n">
         <v>83.1</v>
       </c>
       <c r="D22" s="20" t="n">
+        <v>83.1</v>
+      </c>
+      <c r="E22" s="20" t="n">
         <v>82.7</v>
       </c>
-      <c r="E22" s="20" t="n">
+      <c r="F22" s="20" t="n">
         <v>83.3</v>
       </c>
-      <c r="F22" s="20" t="n">
+      <c r="G22" s="20" t="n">
         <v>85.8</v>
       </c>
-      <c r="G22" s="20" t="n">
+      <c r="H22" s="20" t="n">
         <v>86.1</v>
       </c>
-      <c r="H22" s="20" t="n">
+      <c r="I22" s="20" t="n">
         <v>86.4</v>
-      </c>
-      <c r="I22" s="20" t="n">
-        <v>86.7</v>
       </c>
       <c r="J22" s="20" t="n">
         <v>86.7</v>
       </c>
       <c r="K22" s="20" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="L22" s="20" t="n">
         <v>87.1</v>
       </c>
-      <c r="L22" s="20" t="n">
+      <c r="M22" s="20" t="n">
         <v>87.6</v>
       </c>
-      <c r="M22" s="20" t="n">
+      <c r="N22" s="20" t="n">
         <v>87.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
+          <t>DE50</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
           <t>Bremen</t>
         </is>
       </c>
-      <c r="B23" s="19" t="n">
+      <c r="C23" s="19" t="n">
         <v>1558.7</v>
       </c>
-      <c r="C23" s="19" t="n">
+      <c r="D23" s="19" t="n">
         <v>1564.9</v>
       </c>
-      <c r="D23" s="19" t="n">
+      <c r="E23" s="19" t="n">
         <v>1570.6</v>
       </c>
-      <c r="E23" s="19" t="n">
+      <c r="F23" s="19" t="n">
         <v>1587.4</v>
       </c>
-      <c r="F23" s="19" t="n">
+      <c r="G23" s="19" t="n">
         <v>1726.7</v>
       </c>
-      <c r="G23" s="19" t="n">
+      <c r="H23" s="19" t="n">
         <v>1738.9</v>
       </c>
-      <c r="H23" s="19" t="n">
+      <c r="I23" s="19" t="n">
         <v>1744.3</v>
-      </c>
-      <c r="I23" s="19" t="n">
-        <v>1744.5</v>
       </c>
       <c r="J23" s="19" t="n">
         <v>1744.5</v>
       </c>
       <c r="K23" s="19" t="n">
+        <v>1744.5</v>
+      </c>
+      <c r="L23" s="19" t="n">
         <v>1740.8</v>
       </c>
-      <c r="L23" s="19" t="n">
+      <c r="M23" s="19" t="n">
         <v>1754.8</v>
       </c>
-      <c r="M23" s="19" t="n">
+      <c r="N23" s="19" t="n">
         <v>1788.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
+          <t>DE60</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
           <t>Hamburg</t>
         </is>
       </c>
-      <c r="B24" s="20" t="n">
+      <c r="C24" s="20" t="n">
         <v>2285.5</v>
       </c>
-      <c r="C24" s="20" t="n">
+      <c r="D24" s="20" t="n">
         <v>2304.1</v>
       </c>
-      <c r="D24" s="20" t="n">
+      <c r="E24" s="20" t="n">
         <v>2323.9</v>
       </c>
-      <c r="E24" s="20" t="n">
+      <c r="F24" s="20" t="n">
         <v>2351.1</v>
       </c>
-      <c r="F24" s="20" t="n">
+      <c r="G24" s="20" t="n">
         <v>2533.7</v>
       </c>
-      <c r="G24" s="20" t="n">
+      <c r="H24" s="20" t="n">
         <v>2564.1</v>
       </c>
-      <c r="H24" s="20" t="n">
+      <c r="I24" s="20" t="n">
         <v>2585.7</v>
-      </c>
-      <c r="I24" s="20" t="n">
-        <v>2597.5</v>
       </c>
       <c r="J24" s="20" t="n">
         <v>2597.5</v>
       </c>
       <c r="K24" s="20" t="n">
+        <v>2597.5</v>
+      </c>
+      <c r="L24" s="20" t="n">
         <v>2605.4</v>
       </c>
-      <c r="L24" s="20" t="n">
+      <c r="M24" s="20" t="n">
         <v>2596.2</v>
       </c>
-      <c r="M24" s="20" t="n">
+      <c r="N24" s="20" t="n">
         <v>2594.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
+          <t>DE71</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
           <t>Darmstadt</t>
         </is>
       </c>
-      <c r="B25" s="19" t="n">
+      <c r="C25" s="19" t="n">
         <v>507.4</v>
       </c>
-      <c r="C25" s="19" t="n">
+      <c r="D25" s="19" t="n">
         <v>511.3</v>
       </c>
-      <c r="D25" s="19" t="n">
+      <c r="E25" s="19" t="n">
         <v>516.2</v>
       </c>
-      <c r="E25" s="19" t="n">
+      <c r="F25" s="19" t="n">
         <v>522.9</v>
       </c>
-      <c r="F25" s="19" t="n">
+      <c r="G25" s="19" t="n">
         <v>532.4</v>
       </c>
-      <c r="G25" s="19" t="n">
+      <c r="H25" s="19" t="n">
         <v>536.1</v>
       </c>
-      <c r="H25" s="19" t="n">
+      <c r="I25" s="19" t="n">
         <v>539.3</v>
-      </c>
-      <c r="I25" s="19" t="n">
-        <v>542.2</v>
       </c>
       <c r="J25" s="19" t="n">
         <v>542.2</v>
       </c>
       <c r="K25" s="19" t="n">
+        <v>542.2</v>
+      </c>
+      <c r="L25" s="19" t="n">
         <v>544.1</v>
       </c>
-      <c r="L25" s="19" t="n">
+      <c r="M25" s="19" t="n">
         <v>542.8</v>
       </c>
-      <c r="M25" s="19" t="n">
+      <c r="N25" s="19" t="n">
         <v>542.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
+          <t>DE72</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
           <t>Gießen</t>
         </is>
       </c>
-      <c r="B26" s="20" t="n">
+      <c r="C26" s="20" t="n">
         <v>190.4</v>
       </c>
-      <c r="C26" s="20" t="n">
+      <c r="D26" s="20" t="n">
         <v>190.1</v>
       </c>
-      <c r="D26" s="20" t="n">
+      <c r="E26" s="20" t="n">
         <v>190.7</v>
       </c>
-      <c r="E26" s="20" t="n">
+      <c r="F26" s="20" t="n">
         <v>192.2</v>
       </c>
-      <c r="F26" s="20" t="n">
+      <c r="G26" s="20" t="n">
         <v>193.8</v>
       </c>
-      <c r="G26" s="20" t="n">
+      <c r="H26" s="20" t="n">
         <v>194.3</v>
       </c>
-      <c r="H26" s="20" t="n">
+      <c r="I26" s="20" t="n">
         <v>194.7</v>
-      </c>
-      <c r="I26" s="20" t="n">
-        <v>194.9</v>
       </c>
       <c r="J26" s="20" t="n">
         <v>194.9</v>
       </c>
       <c r="K26" s="20" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="L26" s="20" t="n">
         <v>195.1</v>
       </c>
-      <c r="L26" s="20" t="n">
+      <c r="M26" s="20" t="n">
         <v>194.2</v>
       </c>
-      <c r="M26" s="20" t="n">
+      <c r="N26" s="20" t="n">
         <v>193.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
         <is>
+          <t>DE73</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
           <t>Kassel</t>
         </is>
       </c>
-      <c r="B27" s="19" t="n">
+      <c r="C27" s="19" t="n">
         <v>145.2</v>
       </c>
-      <c r="C27" s="19" t="n">
+      <c r="D27" s="19" t="n">
         <v>144.9</v>
       </c>
-      <c r="D27" s="19" t="n">
+      <c r="E27" s="19" t="n">
         <v>144.8</v>
       </c>
-      <c r="E27" s="19" t="n">
+      <c r="F27" s="19" t="n">
         <v>145.7</v>
       </c>
-      <c r="F27" s="19" t="n">
+      <c r="G27" s="19" t="n">
         <v>147.1</v>
       </c>
-      <c r="G27" s="19" t="n">
+      <c r="H27" s="19" t="n">
         <v>147.4</v>
-      </c>
-      <c r="H27" s="19" t="n">
-        <v>147.5</v>
       </c>
       <c r="I27" s="19" t="n">
         <v>147.5</v>
@@ -1551,41 +1649,46 @@
         <v>147.5</v>
       </c>
       <c r="K27" s="19" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="L27" s="19" t="n">
         <v>147.4</v>
       </c>
-      <c r="L27" s="19" t="n">
+      <c r="M27" s="19" t="n">
         <v>146.2</v>
       </c>
-      <c r="M27" s="19" t="n">
+      <c r="N27" s="19" t="n">
         <v>145.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
+          <t>DE80</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
           <t>Mecklenburg-Vorpommern</t>
         </is>
       </c>
-      <c r="B28" s="20" t="n">
+      <c r="C28" s="20" t="n">
         <v>69.1</v>
       </c>
-      <c r="C28" s="20" t="n">
+      <c r="D28" s="20" t="n">
         <v>68.9</v>
       </c>
-      <c r="D28" s="20" t="n">
+      <c r="E28" s="20" t="n">
         <v>68.6</v>
       </c>
-      <c r="E28" s="20" t="n">
+      <c r="F28" s="20" t="n">
         <v>68.9</v>
-      </c>
-      <c r="F28" s="20" t="n">
-        <v>71.4</v>
       </c>
       <c r="G28" s="20" t="n">
         <v>71.4</v>
       </c>
       <c r="H28" s="20" t="n">
-        <v>71.3</v>
+        <v>71.4</v>
       </c>
       <c r="I28" s="20" t="n">
         <v>71.3</v>
@@ -1597,1106 +1700,1234 @@
         <v>71.3</v>
       </c>
       <c r="L28" s="20" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="M28" s="20" t="n">
         <v>70.6</v>
       </c>
-      <c r="M28" s="20" t="n">
+      <c r="N28" s="20" t="n">
         <v>69.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
+          <t>DE91</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
           <t>Braunschweig</t>
         </is>
       </c>
-      <c r="B29" s="19" t="n">
+      <c r="C29" s="19" t="n">
         <v>194.5</v>
-      </c>
-      <c r="C29" s="19" t="n">
-        <v>194.4</v>
       </c>
       <c r="D29" s="19" t="n">
         <v>194.4</v>
       </c>
       <c r="E29" s="19" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="F29" s="19" t="n">
         <v>195.8</v>
       </c>
-      <c r="F29" s="19" t="n">
+      <c r="G29" s="19" t="n">
         <v>197.5</v>
       </c>
-      <c r="G29" s="19" t="n">
+      <c r="H29" s="19" t="n">
         <v>197.3</v>
       </c>
-      <c r="H29" s="19" t="n">
+      <c r="I29" s="19" t="n">
         <v>197.4</v>
-      </c>
-      <c r="I29" s="19" t="n">
-        <v>197.3</v>
       </c>
       <c r="J29" s="19" t="n">
         <v>197.3</v>
       </c>
-      <c r="K29" s="25" t="n">
+      <c r="K29" s="19" t="n">
+        <v>197.3</v>
+      </c>
+      <c r="L29" s="25" t="n">
         <v>197.0</v>
       </c>
-      <c r="L29" s="19" t="n">
+      <c r="M29" s="19" t="n">
         <v>196.7</v>
       </c>
-      <c r="M29" s="19" t="n">
+      <c r="N29" s="19" t="n">
         <v>196.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
+          <t>DE92</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
           <t>Hannover</t>
         </is>
       </c>
-      <c r="B30" s="20" t="n">
+      <c r="C30" s="20" t="n">
         <v>231.5</v>
       </c>
-      <c r="C30" s="20" t="n">
+      <c r="D30" s="20" t="n">
         <v>231.8</v>
       </c>
-      <c r="D30" s="20" t="n">
+      <c r="E30" s="20" t="n">
         <v>232.1</v>
       </c>
-      <c r="E30" s="20" t="n">
+      <c r="F30" s="20" t="n">
         <v>233.9</v>
       </c>
-      <c r="F30" s="20" t="n">
+      <c r="G30" s="20" t="n">
         <v>237.6</v>
       </c>
-      <c r="G30" s="20" t="n">
+      <c r="H30" s="20" t="n">
         <v>238.2</v>
       </c>
-      <c r="H30" s="20" t="n">
+      <c r="I30" s="20" t="n">
         <v>238.8</v>
-      </c>
-      <c r="I30" s="29" t="n">
-        <v>239.0</v>
       </c>
       <c r="J30" s="29" t="n">
         <v>239.0</v>
       </c>
-      <c r="K30" s="20" t="n">
+      <c r="K30" s="29" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="L30" s="20" t="n">
         <v>238.9</v>
       </c>
-      <c r="L30" s="20" t="n">
+      <c r="M30" s="20" t="n">
         <v>237.3</v>
       </c>
-      <c r="M30" s="20" t="n">
+      <c r="N30" s="20" t="n">
         <v>235.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
+          <t>DE93</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
           <t>Lüneburg</t>
         </is>
       </c>
-      <c r="B31" s="19" t="n">
+      <c r="C31" s="19" t="n">
         <v>107.6</v>
-      </c>
-      <c r="C31" s="19" t="n">
-        <v>107.7</v>
       </c>
       <c r="D31" s="19" t="n">
         <v>107.7</v>
       </c>
       <c r="E31" s="19" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="F31" s="19" t="n">
         <v>108.7</v>
       </c>
-      <c r="F31" s="19" t="n">
+      <c r="G31" s="19" t="n">
         <v>110.6</v>
       </c>
-      <c r="G31" s="19" t="n">
+      <c r="H31" s="19" t="n">
         <v>110.8</v>
       </c>
-      <c r="H31" s="25" t="n">
+      <c r="I31" s="25" t="n">
         <v>111.0</v>
-      </c>
-      <c r="I31" s="19" t="n">
-        <v>111.4</v>
       </c>
       <c r="J31" s="19" t="n">
         <v>111.4</v>
       </c>
       <c r="K31" s="19" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="L31" s="19" t="n">
         <v>111.7</v>
       </c>
-      <c r="L31" s="25" t="n">
+      <c r="M31" s="25" t="n">
         <v>112.0</v>
       </c>
-      <c r="M31" s="19" t="n">
+      <c r="N31" s="19" t="n">
         <v>111.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
+          <t>DE94</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
           <t>Weser-Ems</t>
         </is>
       </c>
-      <c r="B32" s="29" t="n">
+      <c r="C32" s="29" t="n">
         <v>163.0</v>
       </c>
-      <c r="C32" s="20" t="n">
+      <c r="D32" s="20" t="n">
         <v>163.3</v>
       </c>
-      <c r="D32" s="20" t="n">
+      <c r="E32" s="20" t="n">
         <v>163.7</v>
       </c>
-      <c r="E32" s="20" t="n">
+      <c r="F32" s="20" t="n">
         <v>165.4</v>
       </c>
-      <c r="F32" s="20" t="n">
+      <c r="G32" s="20" t="n">
         <v>167.9</v>
       </c>
-      <c r="G32" s="20" t="n">
+      <c r="H32" s="20" t="n">
         <v>168.6</v>
       </c>
-      <c r="H32" s="20" t="n">
+      <c r="I32" s="20" t="n">
         <v>169.2</v>
-      </c>
-      <c r="I32" s="20" t="n">
-        <v>169.8</v>
       </c>
       <c r="J32" s="20" t="n">
         <v>169.8</v>
       </c>
       <c r="K32" s="20" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="L32" s="20" t="n">
         <v>170.4</v>
       </c>
-      <c r="L32" s="20" t="n">
+      <c r="M32" s="20" t="n">
         <v>171.6</v>
       </c>
-      <c r="M32" s="20" t="n">
+      <c r="N32" s="20" t="n">
         <v>172.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="inlineStr">
         <is>
+          <t>DEA1</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
           <t>Düsseldorf</t>
         </is>
       </c>
-      <c r="B33" s="19" t="n">
+      <c r="C33" s="19" t="n">
         <v>959.9</v>
       </c>
-      <c r="C33" s="19" t="n">
+      <c r="D33" s="19" t="n">
         <v>960.8</v>
       </c>
-      <c r="D33" s="19" t="n">
+      <c r="E33" s="19" t="n">
         <v>963.6</v>
       </c>
-      <c r="E33" s="19" t="n">
+      <c r="F33" s="19" t="n">
         <v>971.6</v>
       </c>
-      <c r="F33" s="19" t="n">
+      <c r="G33" s="19" t="n">
         <v>1002.4</v>
       </c>
-      <c r="G33" s="19" t="n">
+      <c r="H33" s="19" t="n">
         <v>1004.8</v>
       </c>
-      <c r="H33" s="19" t="n">
+      <c r="I33" s="19" t="n">
         <v>1005.9</v>
-      </c>
-      <c r="I33" s="19" t="n">
-        <v>1006.7</v>
       </c>
       <c r="J33" s="19" t="n">
         <v>1006.7</v>
       </c>
       <c r="K33" s="19" t="n">
+        <v>1006.7</v>
+      </c>
+      <c r="L33" s="19" t="n">
         <v>1006.5</v>
       </c>
-      <c r="L33" s="19" t="n">
+      <c r="M33" s="19" t="n">
         <v>1007.8</v>
       </c>
-      <c r="M33" s="19" t="n">
+      <c r="N33" s="19" t="n">
         <v>1011.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
+          <t>DEA2</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
           <t>Köln</t>
         </is>
       </c>
-      <c r="B34" s="20" t="n">
+      <c r="C34" s="20" t="n">
         <v>584.9</v>
       </c>
-      <c r="C34" s="20" t="n">
+      <c r="D34" s="20" t="n">
         <v>587.2</v>
       </c>
-      <c r="D34" s="20" t="n">
+      <c r="E34" s="20" t="n">
         <v>590.3</v>
       </c>
-      <c r="E34" s="20" t="n">
+      <c r="F34" s="20" t="n">
         <v>596.3</v>
       </c>
-      <c r="F34" s="20" t="n">
+      <c r="G34" s="20" t="n">
         <v>607.6</v>
       </c>
-      <c r="G34" s="20" t="n">
+      <c r="H34" s="20" t="n">
         <v>609.7</v>
       </c>
-      <c r="H34" s="20" t="n">
+      <c r="I34" s="20" t="n">
         <v>611.8</v>
-      </c>
-      <c r="I34" s="20" t="n">
-        <v>613.4</v>
       </c>
       <c r="J34" s="20" t="n">
         <v>613.4</v>
       </c>
       <c r="K34" s="20" t="n">
+        <v>613.4</v>
+      </c>
+      <c r="L34" s="20" t="n">
         <v>613.9</v>
       </c>
-      <c r="L34" s="20" t="n">
+      <c r="M34" s="20" t="n">
         <v>612.5</v>
       </c>
-      <c r="M34" s="20" t="n">
+      <c r="N34" s="20" t="n">
         <v>612.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
+          <t>DEA3</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
           <t>Münster</t>
         </is>
       </c>
-      <c r="B35" s="19" t="n">
+      <c r="C35" s="19" t="n">
         <v>372.2</v>
       </c>
-      <c r="C35" s="25" t="n">
+      <c r="D35" s="25" t="n">
         <v>372.0</v>
       </c>
-      <c r="D35" s="19" t="n">
+      <c r="E35" s="19" t="n">
         <v>372.6</v>
       </c>
-      <c r="E35" s="19" t="n">
+      <c r="F35" s="19" t="n">
         <v>375.5</v>
       </c>
-      <c r="F35" s="19" t="n">
+      <c r="G35" s="19" t="n">
         <v>379.1</v>
       </c>
-      <c r="G35" s="19" t="n">
+      <c r="H35" s="19" t="n">
         <v>379.6</v>
       </c>
-      <c r="H35" s="19" t="n">
+      <c r="I35" s="19" t="n">
         <v>379.9</v>
-      </c>
-      <c r="I35" s="19" t="n">
-        <v>380.1</v>
       </c>
       <c r="J35" s="19" t="n">
         <v>380.1</v>
       </c>
       <c r="K35" s="19" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="L35" s="19" t="n">
         <v>380.2</v>
       </c>
-      <c r="L35" s="19" t="n">
+      <c r="M35" s="19" t="n">
         <v>381.8</v>
       </c>
-      <c r="M35" s="19" t="n">
+      <c r="N35" s="19" t="n">
         <v>383.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
+          <t>DEA4</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
           <t>Detmold</t>
         </is>
       </c>
-      <c r="B36" s="20" t="n">
+      <c r="C36" s="20" t="n">
         <v>310.6</v>
       </c>
-      <c r="C36" s="20" t="n">
+      <c r="D36" s="20" t="n">
         <v>310.3</v>
       </c>
-      <c r="D36" s="20" t="n">
+      <c r="E36" s="20" t="n">
         <v>310.7</v>
       </c>
-      <c r="E36" s="20" t="n">
+      <c r="F36" s="20" t="n">
         <v>313.3</v>
       </c>
-      <c r="F36" s="20" t="n">
+      <c r="G36" s="20" t="n">
         <v>316.4</v>
       </c>
-      <c r="G36" s="20" t="n">
+      <c r="H36" s="20" t="n">
         <v>316.1</v>
       </c>
-      <c r="H36" s="20" t="n">
+      <c r="I36" s="20" t="n">
         <v>316.2</v>
-      </c>
-      <c r="I36" s="20" t="n">
-        <v>316.3</v>
       </c>
       <c r="J36" s="20" t="n">
         <v>316.3</v>
       </c>
       <c r="K36" s="20" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="L36" s="20" t="n">
         <v>316.2</v>
       </c>
-      <c r="L36" s="20" t="n">
+      <c r="M36" s="20" t="n">
         <v>317.6</v>
       </c>
-      <c r="M36" s="20" t="n">
+      <c r="N36" s="20" t="n">
         <v>318.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
         <is>
+          <t>DEA5</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
           <t>Arnsberg</t>
         </is>
       </c>
-      <c r="B37" s="19" t="n">
+      <c r="C37" s="19" t="n">
         <v>445.1</v>
       </c>
-      <c r="C37" s="19" t="n">
+      <c r="D37" s="19" t="n">
         <v>443.9</v>
       </c>
-      <c r="D37" s="19" t="n">
+      <c r="E37" s="19" t="n">
         <v>443.7</v>
       </c>
-      <c r="E37" s="19" t="n">
+      <c r="F37" s="19" t="n">
         <v>446.5</v>
       </c>
-      <c r="F37" s="19" t="n">
+      <c r="G37" s="19" t="n">
         <v>450.4</v>
       </c>
-      <c r="G37" s="19" t="n">
+      <c r="H37" s="19" t="n">
         <v>449.5</v>
       </c>
-      <c r="H37" s="19" t="n">
+      <c r="I37" s="19" t="n">
         <v>449.3</v>
-      </c>
-      <c r="I37" s="19" t="n">
-        <v>449.1</v>
       </c>
       <c r="J37" s="19" t="n">
         <v>449.1</v>
       </c>
       <c r="K37" s="19" t="n">
+        <v>449.1</v>
+      </c>
+      <c r="L37" s="19" t="n">
         <v>448.4</v>
       </c>
-      <c r="L37" s="19" t="n">
+      <c r="M37" s="19" t="n">
         <v>447.4</v>
       </c>
-      <c r="M37" s="19" t="n">
+      <c r="N37" s="19" t="n">
         <v>447.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
         <is>
+          <t>DEB1</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
           <t>Koblenz</t>
         </is>
       </c>
-      <c r="B38" s="20" t="n">
+      <c r="C38" s="20" t="n">
         <v>183.1</v>
       </c>
-      <c r="C38" s="20" t="n">
+      <c r="D38" s="20" t="n">
         <v>182.7</v>
       </c>
-      <c r="D38" s="20" t="n">
+      <c r="E38" s="20" t="n">
         <v>182.8</v>
       </c>
-      <c r="E38" s="20" t="n">
+      <c r="F38" s="20" t="n">
         <v>183.6</v>
       </c>
-      <c r="F38" s="20" t="n">
+      <c r="G38" s="20" t="n">
         <v>185.8</v>
       </c>
-      <c r="G38" s="20" t="n">
+      <c r="H38" s="20" t="n">
         <v>186.1</v>
       </c>
-      <c r="H38" s="20" t="n">
+      <c r="I38" s="20" t="n">
         <v>186.4</v>
-      </c>
-      <c r="I38" s="20" t="n">
-        <v>186.7</v>
       </c>
       <c r="J38" s="20" t="n">
         <v>186.7</v>
       </c>
-      <c r="K38" s="29" t="n">
+      <c r="K38" s="20" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="L38" s="29" t="n">
         <v>187.0</v>
       </c>
-      <c r="L38" s="20" t="n">
+      <c r="M38" s="20" t="n">
         <v>188.7</v>
       </c>
-      <c r="M38" s="20" t="n">
+      <c r="N38" s="20" t="n">
         <v>190.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
+          <t>DEB2</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
           <t>Trier</t>
         </is>
       </c>
-      <c r="B39" s="19" t="n">
+      <c r="C39" s="19" t="n">
         <v>105.3</v>
       </c>
-      <c r="C39" s="19" t="n">
+      <c r="D39" s="19" t="n">
         <v>105.4</v>
       </c>
-      <c r="D39" s="19" t="n">
+      <c r="E39" s="19" t="n">
         <v>105.7</v>
       </c>
-      <c r="E39" s="25" t="n">
+      <c r="F39" s="25" t="n">
         <v>107.0</v>
       </c>
-      <c r="F39" s="19" t="n">
+      <c r="G39" s="19" t="n">
         <v>108.3</v>
       </c>
-      <c r="G39" s="19" t="n">
+      <c r="H39" s="19" t="n">
         <v>107.9</v>
       </c>
-      <c r="H39" s="19" t="n">
+      <c r="I39" s="19" t="n">
         <v>108.2</v>
-      </c>
-      <c r="I39" s="19" t="n">
-        <v>108.5</v>
       </c>
       <c r="J39" s="19" t="n">
         <v>108.5</v>
       </c>
       <c r="K39" s="19" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="L39" s="19" t="n">
         <v>108.9</v>
       </c>
-      <c r="L39" s="19" t="n">
+      <c r="M39" s="19" t="n">
         <v>108.3</v>
       </c>
-      <c r="M39" s="19" t="n">
+      <c r="N39" s="19" t="n">
         <v>107.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
+          <t>DEB3</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
           <t>Rheinhessen-Pfalz</t>
         </is>
       </c>
-      <c r="B40" s="29" t="n">
+      <c r="C40" s="29" t="n">
         <v>291.0</v>
       </c>
-      <c r="C40" s="20" t="n">
+      <c r="D40" s="20" t="n">
         <v>291.7</v>
       </c>
-      <c r="D40" s="20" t="n">
+      <c r="E40" s="20" t="n">
         <v>292.9</v>
       </c>
-      <c r="E40" s="20" t="n">
+      <c r="F40" s="20" t="n">
         <v>295.1</v>
       </c>
-      <c r="F40" s="29" t="n">
+      <c r="G40" s="29" t="n">
         <v>300.0</v>
       </c>
-      <c r="G40" s="20" t="n">
+      <c r="H40" s="20" t="n">
         <v>301.4</v>
       </c>
-      <c r="H40" s="20" t="n">
+      <c r="I40" s="20" t="n">
         <v>302.4</v>
-      </c>
-      <c r="I40" s="20" t="n">
-        <v>303.2</v>
       </c>
       <c r="J40" s="20" t="n">
         <v>303.2</v>
       </c>
       <c r="K40" s="20" t="n">
+        <v>303.2</v>
+      </c>
+      <c r="L40" s="20" t="n">
         <v>303.6</v>
       </c>
-      <c r="L40" s="20" t="n">
+      <c r="M40" s="20" t="n">
         <v>303.7</v>
       </c>
-      <c r="M40" s="20" t="n">
+      <c r="N40" s="20" t="n">
         <v>304.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
         <is>
+          <t>DEC0</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="inlineStr">
+        <is>
           <t>Saarland</t>
         </is>
       </c>
-      <c r="B41" s="19" t="n">
+      <c r="C41" s="19" t="n">
         <v>387.8</v>
       </c>
-      <c r="C41" s="19" t="n">
+      <c r="D41" s="19" t="n">
         <v>386.4</v>
       </c>
-      <c r="D41" s="25" t="n">
+      <c r="E41" s="25" t="n">
         <v>385.0</v>
       </c>
-      <c r="E41" s="25" t="n">
+      <c r="F41" s="25" t="n">
         <v>386.0</v>
       </c>
-      <c r="F41" s="19" t="n">
+      <c r="G41" s="19" t="n">
         <v>388.4</v>
       </c>
-      <c r="G41" s="19" t="n">
+      <c r="H41" s="19" t="n">
         <v>388.1</v>
       </c>
-      <c r="H41" s="19" t="n">
+      <c r="I41" s="19" t="n">
         <v>386.9</v>
-      </c>
-      <c r="I41" s="19" t="n">
-        <v>385.5</v>
       </c>
       <c r="J41" s="19" t="n">
         <v>385.5</v>
       </c>
       <c r="K41" s="19" t="n">
+        <v>385.5</v>
+      </c>
+      <c r="L41" s="19" t="n">
         <v>384.2</v>
       </c>
-      <c r="L41" s="19" t="n">
+      <c r="M41" s="19" t="n">
         <v>388.7</v>
       </c>
-      <c r="M41" s="19" t="n">
+      <c r="N41" s="19" t="n">
         <v>394.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
+          <t>DED2</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="inlineStr">
+        <is>
           <t>Dresden</t>
         </is>
       </c>
-      <c r="B42" s="20" t="n">
+      <c r="C42" s="20" t="n">
         <v>200.7</v>
       </c>
-      <c r="C42" s="20" t="n">
+      <c r="D42" s="20" t="n">
         <v>200.6</v>
       </c>
-      <c r="D42" s="20" t="n">
+      <c r="E42" s="20" t="n">
         <v>200.4</v>
       </c>
-      <c r="E42" s="20" t="n">
+      <c r="F42" s="20" t="n">
         <v>201.1</v>
       </c>
-      <c r="F42" s="20" t="n">
+      <c r="G42" s="20" t="n">
         <v>206.1</v>
       </c>
-      <c r="G42" s="20" t="n">
+      <c r="H42" s="20" t="n">
         <v>205.9</v>
       </c>
-      <c r="H42" s="20" t="n">
+      <c r="I42" s="20" t="n">
         <v>205.7</v>
-      </c>
-      <c r="I42" s="20" t="n">
-        <v>205.6</v>
       </c>
       <c r="J42" s="20" t="n">
         <v>205.6</v>
       </c>
       <c r="K42" s="20" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="L42" s="20" t="n">
         <v>205.1</v>
       </c>
-      <c r="L42" s="20" t="n">
+      <c r="M42" s="20" t="n">
         <v>204.1</v>
       </c>
-      <c r="M42" s="20" t="n">
+      <c r="N42" s="20" t="n">
         <v>204.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
         <is>
+          <t>DED4</t>
+        </is>
+      </c>
+      <c r="B43" s="8" t="inlineStr">
+        <is>
           <t>Chemnitz</t>
         </is>
       </c>
-      <c r="B43" s="19" t="n">
+      <c r="C43" s="19" t="n">
         <v>227.8</v>
       </c>
-      <c r="C43" s="25" t="n">
+      <c r="D43" s="25" t="n">
         <v>226.0</v>
       </c>
-      <c r="D43" s="19" t="n">
+      <c r="E43" s="19" t="n">
         <v>224.6</v>
-      </c>
-      <c r="E43" s="19" t="n">
-        <v>224.3</v>
       </c>
       <c r="F43" s="19" t="n">
         <v>224.3</v>
       </c>
       <c r="G43" s="19" t="n">
+        <v>224.3</v>
+      </c>
+      <c r="H43" s="19" t="n">
         <v>222.7</v>
       </c>
-      <c r="H43" s="19" t="n">
+      <c r="I43" s="19" t="n">
         <v>221.3</v>
-      </c>
-      <c r="I43" s="19" t="n">
-        <v>219.9</v>
       </c>
       <c r="J43" s="19" t="n">
         <v>219.9</v>
       </c>
       <c r="K43" s="19" t="n">
+        <v>219.9</v>
+      </c>
+      <c r="L43" s="19" t="n">
         <v>218.2</v>
       </c>
-      <c r="L43" s="25" t="n">
+      <c r="M43" s="25" t="n">
         <v>215.0</v>
       </c>
-      <c r="M43" s="19" t="n">
+      <c r="N43" s="19" t="n">
         <v>214.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
         <is>
+          <t>DED5</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="inlineStr">
+        <is>
           <t>Leipzig</t>
         </is>
       </c>
-      <c r="B44" s="20" t="n">
+      <c r="C44" s="20" t="n">
         <v>245.9</v>
       </c>
-      <c r="C44" s="20" t="n">
+      <c r="D44" s="20" t="n">
         <v>247.8</v>
       </c>
-      <c r="D44" s="20" t="n">
+      <c r="E44" s="20" t="n">
         <v>249.6</v>
       </c>
-      <c r="E44" s="20" t="n">
+      <c r="F44" s="20" t="n">
         <v>253.4</v>
       </c>
-      <c r="F44" s="20" t="n">
+      <c r="G44" s="20" t="n">
         <v>262.2</v>
       </c>
-      <c r="G44" s="20" t="n">
+      <c r="H44" s="20" t="n">
         <v>264.9</v>
       </c>
-      <c r="H44" s="20" t="n">
+      <c r="I44" s="20" t="n">
         <v>266.9</v>
-      </c>
-      <c r="I44" s="20" t="n">
-        <v>268.4</v>
       </c>
       <c r="J44" s="20" t="n">
         <v>268.4</v>
       </c>
       <c r="K44" s="20" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="L44" s="20" t="n">
         <v>269.7</v>
       </c>
-      <c r="L44" s="20" t="n">
+      <c r="M44" s="20" t="n">
         <v>272.1</v>
       </c>
-      <c r="M44" s="20" t="n">
+      <c r="N44" s="20" t="n">
         <v>273.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="inlineStr">
         <is>
+          <t>DEE0</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
           <t>Sachsen-Anhalt</t>
         </is>
       </c>
-      <c r="B45" s="19" t="n">
+      <c r="C45" s="19" t="n">
         <v>110.9</v>
       </c>
-      <c r="C45" s="19" t="n">
+      <c r="D45" s="19" t="n">
         <v>110.1</v>
-      </c>
-      <c r="D45" s="19" t="n">
-        <v>109.5</v>
       </c>
       <c r="E45" s="19" t="n">
         <v>109.5</v>
       </c>
       <c r="F45" s="19" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="G45" s="19" t="n">
         <v>110.7</v>
       </c>
-      <c r="G45" s="19" t="n">
+      <c r="H45" s="19" t="n">
         <v>110.1</v>
       </c>
-      <c r="H45" s="19" t="n">
+      <c r="I45" s="19" t="n">
         <v>109.4</v>
-      </c>
-      <c r="I45" s="19" t="n">
-        <v>108.7</v>
       </c>
       <c r="J45" s="19" t="n">
         <v>108.7</v>
       </c>
       <c r="K45" s="19" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="L45" s="19" t="n">
         <v>108.1</v>
       </c>
-      <c r="L45" s="19" t="n">
+      <c r="M45" s="19" t="n">
         <v>106.7</v>
       </c>
-      <c r="M45" s="19" t="n">
+      <c r="N45" s="19" t="n">
         <v>106.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
+          <t>DEF0</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="inlineStr">
+        <is>
           <t>Schleswig-Holstein</t>
         </is>
       </c>
-      <c r="B46" s="20" t="n">
+      <c r="C46" s="20" t="n">
         <v>177.5</v>
       </c>
-      <c r="C46" s="20" t="n">
+      <c r="D46" s="20" t="n">
         <v>177.9</v>
       </c>
-      <c r="D46" s="20" t="n">
+      <c r="E46" s="20" t="n">
         <v>178.7</v>
       </c>
-      <c r="E46" s="29" t="n">
+      <c r="F46" s="29" t="n">
         <v>180.0</v>
       </c>
-      <c r="F46" s="20" t="n">
+      <c r="G46" s="20" t="n">
         <v>186.3</v>
       </c>
-      <c r="G46" s="20" t="n">
+      <c r="H46" s="20" t="n">
         <v>187.3</v>
       </c>
-      <c r="H46" s="20" t="n">
+      <c r="I46" s="20" t="n">
         <v>187.8</v>
-      </c>
-      <c r="I46" s="20" t="n">
-        <v>188.2</v>
       </c>
       <c r="J46" s="20" t="n">
         <v>188.2</v>
       </c>
       <c r="K46" s="20" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="L46" s="20" t="n">
         <v>188.7</v>
       </c>
-      <c r="L46" s="20" t="n">
+      <c r="M46" s="20" t="n">
         <v>190.2</v>
       </c>
-      <c r="M46" s="20" t="n">
+      <c r="N46" s="20" t="n">
         <v>191.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
+          <t>DEG0</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
           <t>Thüringen</t>
         </is>
       </c>
-      <c r="B47" s="19" t="n">
+      <c r="C47" s="19" t="n">
         <v>134.6</v>
       </c>
-      <c r="C47" s="19" t="n">
+      <c r="D47" s="19" t="n">
         <v>133.9</v>
       </c>
-      <c r="D47" s="19" t="n">
+      <c r="E47" s="19" t="n">
         <v>133.3</v>
       </c>
-      <c r="E47" s="19" t="n">
+      <c r="F47" s="19" t="n">
         <v>133.6</v>
       </c>
-      <c r="F47" s="19" t="n">
+      <c r="G47" s="19" t="n">
         <v>134.1</v>
       </c>
-      <c r="G47" s="19" t="n">
+      <c r="H47" s="19" t="n">
         <v>133.5</v>
       </c>
-      <c r="H47" s="25" t="n">
+      <c r="I47" s="25" t="n">
         <v>133.0</v>
-      </c>
-      <c r="I47" s="19" t="n">
-        <v>132.4</v>
       </c>
       <c r="J47" s="19" t="n">
         <v>132.4</v>
       </c>
       <c r="K47" s="19" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="L47" s="19" t="n">
         <v>131.7</v>
       </c>
-      <c r="L47" s="19" t="n">
+      <c r="M47" s="19" t="n">
         <v>130.9</v>
       </c>
-      <c r="M47" s="19" t="n">
+      <c r="N47" s="19" t="n">
         <v>131.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
+          <t>IE04</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="inlineStr">
+        <is>
           <t>Northern and Western</t>
         </is>
-      </c>
-      <c r="B48" s="20" t="n">
-        <v>32.3</v>
       </c>
       <c r="C48" s="20" t="n">
         <v>32.3</v>
       </c>
       <c r="D48" s="20" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E48" s="20" t="n">
         <v>33.4</v>
       </c>
-      <c r="E48" s="20" t="n">
+      <c r="F48" s="20" t="n">
         <v>33.5</v>
       </c>
-      <c r="F48" s="20" t="n">
+      <c r="G48" s="20" t="n">
         <v>33.8</v>
       </c>
-      <c r="G48" s="20" t="n">
+      <c r="H48" s="20" t="n">
         <v>34.1</v>
       </c>
-      <c r="H48" s="20" t="n">
+      <c r="I48" s="20" t="n">
         <v>34.5</v>
-      </c>
-      <c r="I48" s="29" t="n">
-        <v>35.0</v>
       </c>
       <c r="J48" s="29" t="n">
         <v>35.0</v>
       </c>
-      <c r="K48" s="20" t="n">
+      <c r="K48" s="29" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="L48" s="20" t="n">
         <v>35.3</v>
       </c>
-      <c r="L48" s="20" t="n">
+      <c r="M48" s="20" t="n">
         <v>36.7</v>
       </c>
-      <c r="M48" s="20" t="n">
+      <c r="N48" s="20" t="n">
         <v>37.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
+          <t>IE05</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="inlineStr">
+        <is>
           <t>Southern</t>
         </is>
       </c>
-      <c r="B49" s="19" t="n">
+      <c r="C49" s="19" t="n">
         <v>52.9</v>
       </c>
-      <c r="C49" s="19" t="n">
+      <c r="D49" s="19" t="n">
         <v>53.1</v>
       </c>
-      <c r="D49" s="19" t="n">
+      <c r="E49" s="19" t="n">
         <v>53.3</v>
       </c>
-      <c r="E49" s="19" t="n">
+      <c r="F49" s="19" t="n">
         <v>53.5</v>
       </c>
-      <c r="F49" s="19" t="n">
+      <c r="G49" s="19" t="n">
         <v>53.9</v>
       </c>
-      <c r="G49" s="19" t="n">
+      <c r="H49" s="19" t="n">
         <v>54.4</v>
       </c>
-      <c r="H49" s="19" t="n">
+      <c r="I49" s="19" t="n">
         <v>54.9</v>
-      </c>
-      <c r="I49" s="19" t="n">
-        <v>55.6</v>
       </c>
       <c r="J49" s="19" t="n">
         <v>55.6</v>
       </c>
       <c r="K49" s="19" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="L49" s="19" t="n">
         <v>56.1</v>
       </c>
-      <c r="L49" s="19" t="n">
+      <c r="M49" s="19" t="n">
         <v>58.6</v>
       </c>
-      <c r="M49" s="19" t="n">
+      <c r="N49" s="19" t="n">
         <v>59.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
+          <t>IE06</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="inlineStr">
+        <is>
           <t>Eastern and Midland</t>
         </is>
       </c>
-      <c r="B50" s="20" t="n">
+      <c r="C50" s="20" t="n">
         <v>153.1</v>
       </c>
-      <c r="C50" s="20" t="n">
+      <c r="D50" s="20" t="n">
         <v>154.2</v>
       </c>
-      <c r="D50" s="20" t="n">
+      <c r="E50" s="20" t="n">
         <v>157.9</v>
       </c>
-      <c r="E50" s="20" t="n">
+      <c r="F50" s="20" t="n">
         <v>160.4</v>
       </c>
-      <c r="F50" s="20" t="n">
+      <c r="G50" s="20" t="n">
         <v>162.7</v>
       </c>
-      <c r="G50" s="20" t="n">
+      <c r="H50" s="20" t="n">
         <v>164.7</v>
       </c>
-      <c r="H50" s="20" t="n">
+      <c r="I50" s="20" t="n">
         <v>167.1</v>
-      </c>
-      <c r="I50" s="20" t="n">
-        <v>169.8</v>
       </c>
       <c r="J50" s="20" t="n">
         <v>169.8</v>
       </c>
       <c r="K50" s="20" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="L50" s="20" t="n">
         <v>171.7</v>
       </c>
-      <c r="L50" s="20" t="n">
+      <c r="M50" s="20" t="n">
         <v>179.9</v>
       </c>
-      <c r="M50" s="20" t="n">
+      <c r="N50" s="20" t="n">
         <v>182.9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
+          <t>HR02</t>
+        </is>
+      </c>
+      <c r="B51" s="8" t="inlineStr">
+        <is>
           <t>Panonska Hrvatska</t>
         </is>
       </c>
-      <c r="B51" s="10" t="inlineStr">
+      <c r="C51" s="10" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="C51" s="10" t="inlineStr">
+      <c r="D51" s="10" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="D51" s="10" t="inlineStr">
+      <c r="E51" s="10" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="E51" s="10" t="inlineStr">
+      <c r="F51" s="10" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="F51" s="10" t="inlineStr">
+      <c r="G51" s="10" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="G51" s="10" t="inlineStr">
+      <c r="H51" s="10" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="H51" s="10" t="inlineStr">
+      <c r="I51" s="10" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="I51" s="10" t="inlineStr">
+      <c r="J51" s="10" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr">
+      <c r="K51" s="10" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="K51" s="19" t="n">
+      <c r="L51" s="19" t="n">
         <v>45.1</v>
       </c>
-      <c r="L51" s="19" t="n">
+      <c r="M51" s="19" t="n">
         <v>44.1</v>
       </c>
-      <c r="M51" s="19" t="n">
+      <c r="N51" s="19" t="n">
         <v>43.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
+          <t>HR03</t>
+        </is>
+      </c>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
           <t>Jadranska Hrvatska</t>
         </is>
       </c>
-      <c r="B52" s="29" t="n">
+      <c r="C52" s="29" t="n">
         <v>57.0</v>
       </c>
-      <c r="C52" s="20" t="n">
+      <c r="D52" s="20" t="n">
         <v>56.9</v>
       </c>
-      <c r="D52" s="20" t="n">
+      <c r="E52" s="20" t="n">
         <v>56.8</v>
       </c>
-      <c r="E52" s="20" t="n">
+      <c r="F52" s="20" t="n">
         <v>56.6</v>
       </c>
-      <c r="F52" s="20" t="n">
+      <c r="G52" s="20" t="n">
         <v>56.7</v>
       </c>
-      <c r="G52" s="20" t="n">
+      <c r="H52" s="20" t="n">
         <v>56.4</v>
       </c>
-      <c r="H52" s="20" t="n">
+      <c r="I52" s="20" t="n">
         <v>56.1</v>
-      </c>
-      <c r="I52" s="29" t="n">
-        <v>56.0</v>
       </c>
       <c r="J52" s="29" t="n">
         <v>56.0</v>
       </c>
-      <c r="K52" s="20" t="n">
+      <c r="K52" s="29" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="L52" s="20" t="n">
         <v>55.9</v>
       </c>
-      <c r="L52" s="20" t="n">
+      <c r="M52" s="20" t="n">
         <v>52.9</v>
       </c>
-      <c r="M52" s="20" t="n">
+      <c r="N52" s="20" t="n">
         <v>53.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="inlineStr">
         <is>
+          <t>HR04</t>
+        </is>
+      </c>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
           <t>Kontinentalna Hrvatska (NUTS 2016)</t>
         </is>
       </c>
-      <c r="B53" s="19" t="n">
+      <c r="C53" s="19" t="n">
         <v>89.7</v>
       </c>
-      <c r="C53" s="19" t="n">
+      <c r="D53" s="19" t="n">
         <v>89.3</v>
       </c>
-      <c r="D53" s="19" t="n">
+      <c r="E53" s="19" t="n">
         <v>88.8</v>
       </c>
-      <c r="E53" s="19" t="n">
+      <c r="F53" s="19" t="n">
         <v>88.1</v>
       </c>
-      <c r="F53" s="19" t="n">
+      <c r="G53" s="19" t="n">
         <v>88.6</v>
       </c>
-      <c r="G53" s="19" t="n">
+      <c r="H53" s="19" t="n">
         <v>87.5</v>
       </c>
-      <c r="H53" s="19" t="n">
+      <c r="I53" s="19" t="n">
         <v>86.5</v>
-      </c>
-      <c r="I53" s="19" t="n">
-        <v>85.8</v>
       </c>
       <c r="J53" s="19" t="n">
         <v>85.8</v>
       </c>
-      <c r="K53" s="10" t="inlineStr">
+      <c r="K53" s="19" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="L53" s="10" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="L53" s="10" t="inlineStr">
+      <c r="M53" s="10" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="M53" s="10" t="inlineStr">
+      <c r="N53" s="10" t="inlineStr">
         <is>
           <t>:</t>
         </is>
@@ -2705,301 +2936,336 @@
     <row r="54">
       <c r="A54" s="8" t="inlineStr">
         <is>
+          <t>CH01</t>
+        </is>
+      </c>
+      <c r="B54" s="8" t="inlineStr">
+        <is>
           <t>Région lémanique</t>
         </is>
       </c>
-      <c r="B54" s="20" t="n">
+      <c r="C54" s="20" t="n">
         <v>182.5</v>
       </c>
-      <c r="C54" s="29" t="n">
+      <c r="D54" s="29" t="n">
         <v>185.0</v>
       </c>
-      <c r="D54" s="20" t="n">
+      <c r="E54" s="20" t="n">
         <v>188.1</v>
       </c>
-      <c r="E54" s="20" t="n">
+      <c r="F54" s="20" t="n">
         <v>191.1</v>
       </c>
-      <c r="F54" s="20" t="n">
+      <c r="G54" s="20" t="n">
         <v>194.2</v>
       </c>
-      <c r="G54" s="20" t="n">
+      <c r="H54" s="20" t="n">
         <v>196.4</v>
       </c>
-      <c r="H54" s="20" t="n">
+      <c r="I54" s="20" t="n">
         <v>198.2</v>
-      </c>
-      <c r="I54" s="20" t="n">
-        <v>199.7</v>
       </c>
       <c r="J54" s="20" t="n">
         <v>199.7</v>
       </c>
       <c r="K54" s="20" t="n">
+        <v>199.7</v>
+      </c>
+      <c r="L54" s="20" t="n">
         <v>201.3</v>
       </c>
-      <c r="L54" s="20" t="n">
+      <c r="M54" s="20" t="n">
         <v>205.2</v>
       </c>
-      <c r="M54" s="20" t="n">
+      <c r="N54" s="20" t="n">
         <v>208.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
+          <t>CH02</t>
+        </is>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
           <t>Espace Mittelland</t>
         </is>
       </c>
-      <c r="B55" s="19" t="n">
+      <c r="C55" s="19" t="n">
         <v>181.9</v>
       </c>
-      <c r="C55" s="19" t="n">
+      <c r="D55" s="19" t="n">
         <v>183.9</v>
       </c>
-      <c r="D55" s="19" t="n">
+      <c r="E55" s="19" t="n">
         <v>185.8</v>
       </c>
-      <c r="E55" s="19" t="n">
+      <c r="F55" s="19" t="n">
         <v>187.6</v>
       </c>
-      <c r="F55" s="19" t="n">
+      <c r="G55" s="19" t="n">
         <v>189.8</v>
       </c>
-      <c r="G55" s="19" t="n">
+      <c r="H55" s="19" t="n">
         <v>191.2</v>
       </c>
-      <c r="H55" s="19" t="n">
+      <c r="I55" s="19" t="n">
         <v>192.1</v>
-      </c>
-      <c r="I55" s="25" t="n">
-        <v>193.0</v>
       </c>
       <c r="J55" s="25" t="n">
         <v>193.0</v>
       </c>
-      <c r="K55" s="19" t="n">
+      <c r="K55" s="25" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="L55" s="19" t="n">
         <v>193.9</v>
       </c>
-      <c r="L55" s="19" t="n">
+      <c r="M55" s="19" t="n">
         <v>196.2</v>
       </c>
-      <c r="M55" s="19" t="n">
+      <c r="N55" s="19" t="n">
         <v>198.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
+          <t>CH03</t>
+        </is>
+      </c>
+      <c r="B56" s="8" t="inlineStr">
+        <is>
           <t>Nordwestschweiz</t>
         </is>
       </c>
-      <c r="B56" s="20" t="n">
+      <c r="C56" s="20" t="n">
         <v>556.8</v>
       </c>
-      <c r="C56" s="20" t="n">
+      <c r="D56" s="20" t="n">
         <v>563.1</v>
       </c>
-      <c r="D56" s="20" t="n">
+      <c r="E56" s="20" t="n">
         <v>569.7</v>
       </c>
-      <c r="E56" s="20" t="n">
+      <c r="F56" s="20" t="n">
         <v>575.9</v>
       </c>
-      <c r="F56" s="20" t="n">
+      <c r="G56" s="20" t="n">
         <v>587.1</v>
       </c>
-      <c r="G56" s="20" t="n">
+      <c r="H56" s="20" t="n">
         <v>593.1</v>
       </c>
-      <c r="H56" s="29" t="n">
+      <c r="I56" s="29" t="n">
         <v>598.0</v>
-      </c>
-      <c r="I56" s="29" t="n">
-        <v>603.0</v>
       </c>
       <c r="J56" s="29" t="n">
         <v>603.0</v>
       </c>
-      <c r="K56" s="20" t="n">
+      <c r="K56" s="29" t="n">
+        <v>603.0</v>
+      </c>
+      <c r="L56" s="20" t="n">
         <v>608.3</v>
       </c>
-      <c r="L56" s="29" t="n">
+      <c r="M56" s="29" t="n">
         <v>619.0</v>
       </c>
-      <c r="M56" s="20" t="n">
+      <c r="N56" s="20" t="n">
         <v>627.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
+          <t>CH04</t>
+        </is>
+      </c>
+      <c r="B57" s="8" t="inlineStr">
+        <is>
           <t>Zürich</t>
         </is>
       </c>
-      <c r="B57" s="19" t="n">
+      <c r="C57" s="19" t="n">
         <v>843.2</v>
       </c>
-      <c r="C57" s="19" t="n">
+      <c r="D57" s="19" t="n">
         <v>853.2</v>
       </c>
-      <c r="D57" s="19" t="n">
+      <c r="E57" s="19" t="n">
         <v>864.5</v>
       </c>
-      <c r="E57" s="19" t="n">
+      <c r="F57" s="19" t="n">
         <v>876.8</v>
       </c>
-      <c r="F57" s="19" t="n">
+      <c r="G57" s="19" t="n">
         <v>893.1</v>
       </c>
-      <c r="G57" s="19" t="n">
+      <c r="H57" s="19" t="n">
         <v>904.6</v>
       </c>
-      <c r="H57" s="19" t="n">
+      <c r="I57" s="19" t="n">
         <v>914.5</v>
-      </c>
-      <c r="I57" s="19" t="n">
-        <v>925.1</v>
       </c>
       <c r="J57" s="19" t="n">
         <v>925.1</v>
       </c>
       <c r="K57" s="19" t="n">
+        <v>925.1</v>
+      </c>
+      <c r="L57" s="19" t="n">
         <v>934.9</v>
       </c>
-      <c r="L57" s="19" t="n">
+      <c r="M57" s="19" t="n">
         <v>950.6</v>
       </c>
-      <c r="M57" s="25" t="n">
+      <c r="N57" s="25" t="n">
         <v>963.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
+          <t>CH05</t>
+        </is>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
           <t>Ostschweiz</t>
         </is>
       </c>
-      <c r="B58" s="20" t="n">
+      <c r="C58" s="20" t="n">
         <v>98.9</v>
       </c>
-      <c r="C58" s="20" t="n">
+      <c r="D58" s="20" t="n">
         <v>99.8</v>
       </c>
-      <c r="D58" s="20" t="n">
+      <c r="E58" s="20" t="n">
         <v>100.7</v>
       </c>
-      <c r="E58" s="20" t="n">
+      <c r="F58" s="20" t="n">
         <v>101.6</v>
       </c>
-      <c r="F58" s="20" t="n">
+      <c r="G58" s="20" t="n">
         <v>102.7</v>
       </c>
-      <c r="G58" s="20" t="n">
+      <c r="H58" s="20" t="n">
         <v>103.4</v>
       </c>
-      <c r="H58" s="29" t="n">
+      <c r="I58" s="29" t="n">
         <v>104.0</v>
-      </c>
-      <c r="I58" s="20" t="n">
-        <v>104.6</v>
       </c>
       <c r="J58" s="20" t="n">
         <v>104.6</v>
       </c>
       <c r="K58" s="20" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="L58" s="20" t="n">
         <v>105.4</v>
       </c>
-      <c r="L58" s="20" t="n">
+      <c r="M58" s="20" t="n">
         <v>107.3</v>
       </c>
-      <c r="M58" s="20" t="n">
+      <c r="N58" s="20" t="n">
         <v>108.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
+          <t>CH06</t>
+        </is>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
           <t>Zentralschweiz</t>
         </is>
       </c>
-      <c r="B59" s="19" t="n">
+      <c r="C59" s="19" t="n">
         <v>178.5</v>
       </c>
-      <c r="C59" s="19" t="n">
+      <c r="D59" s="19" t="n">
         <v>180.4</v>
       </c>
-      <c r="D59" s="19" t="n">
+      <c r="E59" s="19" t="n">
         <v>182.4</v>
       </c>
-      <c r="E59" s="19" t="n">
+      <c r="F59" s="19" t="n">
         <v>184.3</v>
       </c>
-      <c r="F59" s="19" t="n">
+      <c r="G59" s="19" t="n">
         <v>186.9</v>
       </c>
-      <c r="G59" s="19" t="n">
+      <c r="H59" s="19" t="n">
         <v>188.7</v>
       </c>
-      <c r="H59" s="19" t="n">
+      <c r="I59" s="19" t="n">
         <v>190.4</v>
-      </c>
-      <c r="I59" s="19" t="n">
-        <v>191.9</v>
       </c>
       <c r="J59" s="19" t="n">
         <v>191.9</v>
       </c>
       <c r="K59" s="19" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="L59" s="19" t="n">
         <v>193.4</v>
       </c>
-      <c r="L59" s="19" t="n">
+      <c r="M59" s="19" t="n">
         <v>196.9</v>
       </c>
-      <c r="M59" s="19" t="n">
+      <c r="N59" s="19" t="n">
         <v>199.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
+          <t>CH07</t>
+        </is>
+      </c>
+      <c r="B60" s="8" t="inlineStr">
+        <is>
           <t>Ticino</t>
         </is>
       </c>
-      <c r="B60" s="20" t="n">
+      <c r="C60" s="20" t="n">
         <v>123.8</v>
       </c>
-      <c r="C60" s="20" t="n">
+      <c r="D60" s="20" t="n">
         <v>125.5</v>
       </c>
-      <c r="D60" s="20" t="n">
+      <c r="E60" s="20" t="n">
         <v>127.1</v>
       </c>
-      <c r="E60" s="20" t="n">
+      <c r="F60" s="20" t="n">
         <v>128.2</v>
       </c>
-      <c r="F60" s="20" t="n">
+      <c r="G60" s="20" t="n">
         <v>129.2</v>
       </c>
-      <c r="G60" s="20" t="n">
+      <c r="H60" s="20" t="n">
         <v>129.5</v>
       </c>
-      <c r="H60" s="20" t="n">
+      <c r="I60" s="20" t="n">
         <v>129.4</v>
-      </c>
-      <c r="I60" s="20" t="n">
-        <v>128.9</v>
       </c>
       <c r="J60" s="20" t="n">
         <v>128.9</v>
       </c>
       <c r="K60" s="20" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="L60" s="20" t="n">
         <v>128.5</v>
       </c>
-      <c r="L60" s="20" t="n">
+      <c r="M60" s="20" t="n">
         <v>129.2</v>
       </c>
-      <c r="M60" s="20" t="n">
+      <c r="N60" s="20" t="n">
         <v>130.2</v>
       </c>
     </row>
@@ -3023,6 +3289,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -3032,14 +3301,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="9.0" state="frozen" topLeftCell="B10" activePane="bottomRight"/>
+      <pane xSplit="2.0" ySplit="9.0" state="frozen" topLeftCell="C10" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.399999618530273" customHeight="true"/>
   <cols>
-    <col min="1" max="1" width="29.8828125" customWidth="true"/>
-    <col min="2" max="2" width="9.9609375" customWidth="true"/>
+    <col min="1" max="1" width="10.95703125" customWidth="true"/>
+    <col min="2" max="2" width="29.8828125" customWidth="true"/>
     <col min="3" max="3" width="9.9609375" customWidth="true"/>
     <col min="4" max="4" width="9.9609375" customWidth="true"/>
     <col min="5" max="5" width="9.9609375" customWidth="true"/>
@@ -3051,12 +3320,13 @@
     <col min="11" max="11" width="9.9609375" customWidth="true"/>
     <col min="12" max="12" width="9.9609375" customWidth="true"/>
     <col min="13" max="13" width="9.9609375" customWidth="true"/>
+    <col min="14" max="14" width="9.9609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Data extracted on 17/11/2025 10:34:12 from [ESTAT]</t>
+          <t>Data extracted on 17/11/2025 10:45:12 from [ESTAT]</t>
         </is>
       </c>
     </row>
@@ -3118,62 +3388,67 @@
           <t>TIME</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="I8" s="4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="L8" s="4" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -3182,14 +3457,14 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>GEO (Codes)</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
           <t>GEO (Labels)</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
           <t/>
@@ -3241,6 +3516,11 @@
         </is>
       </c>
       <c r="M9" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N9" s="9" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3249,14 +3529,14 @@
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
+          <t>DE11</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
           <t/>
@@ -3274,12 +3554,12 @@
       </c>
       <c r="F10" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H10" s="11" t="inlineStr">
@@ -3304,10 +3584,15 @@
       </c>
       <c r="L10" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M10" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N10" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -3316,14 +3601,14 @@
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
+          <t>DE12</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
           <t>Karlsruhe</t>
         </is>
       </c>
-      <c r="B11" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
           <t/>
@@ -3341,12 +3626,12 @@
       </c>
       <c r="F11" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H11" s="10" t="inlineStr">
@@ -3371,10 +3656,15 @@
       </c>
       <c r="L11" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M11" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N11" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -3383,14 +3673,14 @@
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
+          <t>DE13</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
           <t>Freiburg</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
           <t/>
@@ -3408,12 +3698,12 @@
       </c>
       <c r="F12" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
@@ -3438,10 +3728,15 @@
       </c>
       <c r="L12" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M12" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N12" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -3450,14 +3745,14 @@
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
+          <t>DE14</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
           <t>Tübingen</t>
         </is>
       </c>
-      <c r="B13" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t/>
@@ -3475,12 +3770,12 @@
       </c>
       <c r="F13" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G13" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H13" s="10" t="inlineStr">
@@ -3505,10 +3800,15 @@
       </c>
       <c r="L13" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M13" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N13" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -3517,14 +3817,14 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
+          <t>DE21</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
           <t>Oberbayern</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
           <t/>
@@ -3542,12 +3842,12 @@
       </c>
       <c r="F14" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
@@ -3572,10 +3872,15 @@
       </c>
       <c r="L14" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M14" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N14" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -3584,14 +3889,14 @@
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
+          <t>DE22</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
           <t>Niederbayern</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
           <t/>
@@ -3609,12 +3914,12 @@
       </c>
       <c r="F15" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G15" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H15" s="10" t="inlineStr">
@@ -3639,10 +3944,15 @@
       </c>
       <c r="L15" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M15" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N15" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -3651,14 +3961,14 @@
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
+          <t>DE23</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
           <t>Oberpfalz</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
           <t/>
@@ -3676,12 +3986,12 @@
       </c>
       <c r="F16" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
@@ -3706,10 +4016,15 @@
       </c>
       <c r="L16" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M16" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N16" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -3718,14 +4033,14 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
+          <t>DE24</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
           <t>Oberfranken</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
           <t/>
@@ -3743,12 +4058,12 @@
       </c>
       <c r="F17" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G17" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H17" s="10" t="inlineStr">
@@ -3773,10 +4088,15 @@
       </c>
       <c r="L17" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M17" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N17" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -3785,14 +4105,14 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
+          <t>DE25</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
           <t>Mittelfranken</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C18" s="11" t="inlineStr">
         <is>
           <t/>
@@ -3810,12 +4130,12 @@
       </c>
       <c r="F18" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
@@ -3840,10 +4160,15 @@
       </c>
       <c r="L18" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M18" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N18" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -3852,14 +4177,14 @@
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
+          <t>DE26</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
           <t>Unterfranken</t>
         </is>
       </c>
-      <c r="B19" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
           <t/>
@@ -3877,12 +4202,12 @@
       </c>
       <c r="F19" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G19" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H19" s="10" t="inlineStr">
@@ -3907,10 +4232,15 @@
       </c>
       <c r="L19" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M19" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N19" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -3919,14 +4249,14 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
+          <t>DE27</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
           <t>Schwaben</t>
         </is>
       </c>
-      <c r="B20" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
           <t/>
@@ -3944,12 +4274,12 @@
       </c>
       <c r="F20" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
@@ -3974,10 +4304,15 @@
       </c>
       <c r="L20" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M20" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N20" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -3986,14 +4321,14 @@
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
+          <t>DE30</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
           <t>Berlin</t>
         </is>
       </c>
-      <c r="B21" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
           <t/>
@@ -4011,12 +4346,12 @@
       </c>
       <c r="F21" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G21" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H21" s="10" t="inlineStr">
@@ -4041,10 +4376,15 @@
       </c>
       <c r="L21" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M21" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N21" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4053,14 +4393,14 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
+          <t>DE40</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
           <t>Brandenburg</t>
         </is>
       </c>
-      <c r="B22" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C22" s="11" t="inlineStr">
         <is>
           <t/>
@@ -4078,12 +4418,12 @@
       </c>
       <c r="F22" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
@@ -4108,10 +4448,15 @@
       </c>
       <c r="L22" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M22" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N22" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4120,14 +4465,14 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
+          <t>DE50</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
           <t>Bremen</t>
         </is>
       </c>
-      <c r="B23" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
           <t/>
@@ -4145,12 +4490,12 @@
       </c>
       <c r="F23" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G23" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H23" s="10" t="inlineStr">
@@ -4175,10 +4520,15 @@
       </c>
       <c r="L23" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M23" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N23" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4187,14 +4537,14 @@
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
+          <t>DE60</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
           <t>Hamburg</t>
         </is>
       </c>
-      <c r="B24" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C24" s="11" t="inlineStr">
         <is>
           <t/>
@@ -4212,12 +4562,12 @@
       </c>
       <c r="F24" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
@@ -4242,10 +4592,15 @@
       </c>
       <c r="L24" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M24" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N24" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4254,14 +4609,14 @@
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
+          <t>DE71</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
           <t>Darmstadt</t>
         </is>
       </c>
-      <c r="B25" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
           <t/>
@@ -4279,12 +4634,12 @@
       </c>
       <c r="F25" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G25" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H25" s="10" t="inlineStr">
@@ -4309,10 +4664,15 @@
       </c>
       <c r="L25" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M25" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N25" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4321,14 +4681,14 @@
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
+          <t>DE72</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
           <t>Gießen</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C26" s="11" t="inlineStr">
         <is>
           <t/>
@@ -4346,12 +4706,12 @@
       </c>
       <c r="F26" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H26" s="11" t="inlineStr">
@@ -4376,10 +4736,15 @@
       </c>
       <c r="L26" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M26" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N26" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4388,14 +4753,14 @@
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
         <is>
+          <t>DE73</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
           <t>Kassel</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
           <t/>
@@ -4413,12 +4778,12 @@
       </c>
       <c r="F27" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G27" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H27" s="10" t="inlineStr">
@@ -4443,10 +4808,15 @@
       </c>
       <c r="L27" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M27" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N27" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4455,14 +4825,14 @@
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
+          <t>DE80</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
           <t>Mecklenburg-Vorpommern</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C28" s="11" t="inlineStr">
         <is>
           <t/>
@@ -4480,12 +4850,12 @@
       </c>
       <c r="F28" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H28" s="11" t="inlineStr">
@@ -4510,10 +4880,15 @@
       </c>
       <c r="L28" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M28" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N28" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4522,14 +4897,14 @@
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
+          <t>DE91</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
           <t>Braunschweig</t>
         </is>
       </c>
-      <c r="B29" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
           <t/>
@@ -4547,12 +4922,12 @@
       </c>
       <c r="F29" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G29" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H29" s="10" t="inlineStr">
@@ -4577,10 +4952,15 @@
       </c>
       <c r="L29" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M29" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N29" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4589,14 +4969,14 @@
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
+          <t>DE92</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
           <t>Hannover</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C30" s="11" t="inlineStr">
         <is>
           <t/>
@@ -4614,12 +4994,12 @@
       </c>
       <c r="F30" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H30" s="11" t="inlineStr">
@@ -4644,10 +5024,15 @@
       </c>
       <c r="L30" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M30" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N30" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4656,14 +5041,14 @@
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
+          <t>DE93</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
           <t>Lüneburg</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
           <t/>
@@ -4681,12 +5066,12 @@
       </c>
       <c r="F31" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G31" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H31" s="10" t="inlineStr">
@@ -4711,10 +5096,15 @@
       </c>
       <c r="L31" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M31" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N31" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4723,14 +5113,14 @@
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
+          <t>DE94</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
           <t>Weser-Ems</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C32" s="11" t="inlineStr">
         <is>
           <t/>
@@ -4748,12 +5138,12 @@
       </c>
       <c r="F32" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H32" s="11" t="inlineStr">
@@ -4778,10 +5168,15 @@
       </c>
       <c r="L32" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M32" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N32" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4790,14 +5185,14 @@
     <row r="33">
       <c r="A33" s="8" t="inlineStr">
         <is>
+          <t>DEA1</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
           <t>Düsseldorf</t>
         </is>
       </c>
-      <c r="B33" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C33" s="10" t="inlineStr">
         <is>
           <t/>
@@ -4815,12 +5210,12 @@
       </c>
       <c r="F33" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G33" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H33" s="10" t="inlineStr">
@@ -4845,10 +5240,15 @@
       </c>
       <c r="L33" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M33" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N33" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4857,14 +5257,14 @@
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
+          <t>DEA2</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
           <t>Köln</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C34" s="11" t="inlineStr">
         <is>
           <t/>
@@ -4882,12 +5282,12 @@
       </c>
       <c r="F34" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H34" s="11" t="inlineStr">
@@ -4912,10 +5312,15 @@
       </c>
       <c r="L34" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M34" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N34" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4924,14 +5329,14 @@
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
+          <t>DEA3</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
           <t>Münster</t>
         </is>
       </c>
-      <c r="B35" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C35" s="10" t="inlineStr">
         <is>
           <t/>
@@ -4949,12 +5354,12 @@
       </c>
       <c r="F35" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G35" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H35" s="10" t="inlineStr">
@@ -4979,10 +5384,15 @@
       </c>
       <c r="L35" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M35" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N35" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -4991,14 +5401,14 @@
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
+          <t>DEA4</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
           <t>Detmold</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C36" s="11" t="inlineStr">
         <is>
           <t/>
@@ -5016,12 +5426,12 @@
       </c>
       <c r="F36" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H36" s="11" t="inlineStr">
@@ -5046,10 +5456,15 @@
       </c>
       <c r="L36" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M36" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N36" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -5058,14 +5473,14 @@
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
         <is>
+          <t>DEA5</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
           <t>Arnsberg</t>
         </is>
       </c>
-      <c r="B37" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C37" s="10" t="inlineStr">
         <is>
           <t/>
@@ -5083,12 +5498,12 @@
       </c>
       <c r="F37" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G37" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H37" s="10" t="inlineStr">
@@ -5113,10 +5528,15 @@
       </c>
       <c r="L37" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M37" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N37" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -5125,14 +5545,14 @@
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
         <is>
+          <t>DEB1</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
           <t>Koblenz</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C38" s="11" t="inlineStr">
         <is>
           <t/>
@@ -5150,12 +5570,12 @@
       </c>
       <c r="F38" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G38" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H38" s="11" t="inlineStr">
@@ -5180,10 +5600,15 @@
       </c>
       <c r="L38" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M38" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N38" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -5192,14 +5617,14 @@
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
+          <t>DEB2</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
           <t>Trier</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C39" s="10" t="inlineStr">
         <is>
           <t/>
@@ -5217,12 +5642,12 @@
       </c>
       <c r="F39" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G39" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H39" s="10" t="inlineStr">
@@ -5247,10 +5672,15 @@
       </c>
       <c r="L39" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M39" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N39" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -5259,14 +5689,14 @@
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
+          <t>DEB3</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
           <t>Rheinhessen-Pfalz</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C40" s="11" t="inlineStr">
         <is>
           <t/>
@@ -5284,12 +5714,12 @@
       </c>
       <c r="F40" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G40" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H40" s="11" t="inlineStr">
@@ -5314,10 +5744,15 @@
       </c>
       <c r="L40" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M40" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N40" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -5326,14 +5761,14 @@
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
         <is>
+          <t>DEC0</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="inlineStr">
+        <is>
           <t>Saarland</t>
         </is>
       </c>
-      <c r="B41" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C41" s="10" t="inlineStr">
         <is>
           <t/>
@@ -5351,12 +5786,12 @@
       </c>
       <c r="F41" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G41" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H41" s="10" t="inlineStr">
@@ -5381,10 +5816,15 @@
       </c>
       <c r="L41" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M41" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N41" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -5393,14 +5833,14 @@
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
+          <t>DED2</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="inlineStr">
+        <is>
           <t>Dresden</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C42" s="11" t="inlineStr">
         <is>
           <t/>
@@ -5418,12 +5858,12 @@
       </c>
       <c r="F42" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G42" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H42" s="11" t="inlineStr">
@@ -5448,10 +5888,15 @@
       </c>
       <c r="L42" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M42" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N42" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -5460,14 +5905,14 @@
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
         <is>
+          <t>DED4</t>
+        </is>
+      </c>
+      <c r="B43" s="8" t="inlineStr">
+        <is>
           <t>Chemnitz</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C43" s="10" t="inlineStr">
         <is>
           <t/>
@@ -5485,12 +5930,12 @@
       </c>
       <c r="F43" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G43" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H43" s="10" t="inlineStr">
@@ -5515,10 +5960,15 @@
       </c>
       <c r="L43" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M43" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N43" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -5527,14 +5977,14 @@
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
         <is>
+          <t>DED5</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="inlineStr">
+        <is>
           <t>Leipzig</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C44" s="11" t="inlineStr">
         <is>
           <t/>
@@ -5552,12 +6002,12 @@
       </c>
       <c r="F44" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G44" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H44" s="11" t="inlineStr">
@@ -5582,10 +6032,15 @@
       </c>
       <c r="L44" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M44" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N44" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -5594,14 +6049,14 @@
     <row r="45">
       <c r="A45" s="8" t="inlineStr">
         <is>
+          <t>DEE0</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
           <t>Sachsen-Anhalt</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C45" s="10" t="inlineStr">
         <is>
           <t/>
@@ -5619,12 +6074,12 @@
       </c>
       <c r="F45" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G45" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H45" s="10" t="inlineStr">
@@ -5649,10 +6104,15 @@
       </c>
       <c r="L45" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M45" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N45" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -5661,14 +6121,14 @@
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
+          <t>DEF0</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="inlineStr">
+        <is>
           <t>Schleswig-Holstein</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C46" s="11" t="inlineStr">
         <is>
           <t/>
@@ -5686,12 +6146,12 @@
       </c>
       <c r="F46" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G46" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H46" s="11" t="inlineStr">
@@ -5716,10 +6176,15 @@
       </c>
       <c r="L46" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M46" s="11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N46" s="11" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -5728,14 +6193,14 @@
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
+          <t>DEG0</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
           <t>Thüringen</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C47" s="10" t="inlineStr">
         <is>
           <t/>
@@ -5753,12 +6218,12 @@
       </c>
       <c r="F47" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G47" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H47" s="10" t="inlineStr">
@@ -5783,10 +6248,15 @@
       </c>
       <c r="L47" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="M47" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N47" s="10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
@@ -5795,14 +6265,14 @@
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
+          <t>IE04</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="inlineStr">
+        <is>
           <t>Northern and Western</t>
         </is>
       </c>
-      <c r="B48" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C48" s="11" t="inlineStr">
         <is>
           <t/>
@@ -5820,12 +6290,12 @@
       </c>
       <c r="F48" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G48" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H48" s="11" t="inlineStr">
@@ -5840,20 +6310,25 @@
       </c>
       <c r="J48" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K48" s="11" t="inlineStr">
+        <is>
           <t>e</t>
         </is>
       </c>
-      <c r="K48" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="L48" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="M48" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N48" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5862,14 +6337,14 @@
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
+          <t>IE05</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="inlineStr">
+        <is>
           <t>Southern</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C49" s="10" t="inlineStr">
         <is>
           <t/>
@@ -5887,12 +6362,12 @@
       </c>
       <c r="F49" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G49" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H49" s="10" t="inlineStr">
@@ -5907,20 +6382,25 @@
       </c>
       <c r="J49" s="10" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K49" s="10" t="inlineStr">
+        <is>
           <t>e</t>
         </is>
       </c>
-      <c r="K49" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="L49" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="M49" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N49" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5929,14 +6409,14 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
+          <t>IE06</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="inlineStr">
+        <is>
           <t>Eastern and Midland</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C50" s="11" t="inlineStr">
         <is>
           <t/>
@@ -5954,12 +6434,12 @@
       </c>
       <c r="F50" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G50" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H50" s="11" t="inlineStr">
@@ -5974,20 +6454,25 @@
       </c>
       <c r="J50" s="11" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K50" s="11" t="inlineStr">
+        <is>
           <t>e</t>
         </is>
       </c>
-      <c r="K50" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="L50" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="M50" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N50" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5996,14 +6481,14 @@
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
+          <t>HR02</t>
+        </is>
+      </c>
+      <c r="B51" s="8" t="inlineStr">
+        <is>
           <t>Panonska Hrvatska</t>
         </is>
       </c>
-      <c r="B51" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C51" s="10" t="inlineStr">
         <is>
           <t/>
@@ -6046,15 +6531,20 @@
       </c>
       <c r="K51" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="L51" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="M51" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N51" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6063,14 +6553,14 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
+          <t>HR03</t>
+        </is>
+      </c>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
           <t>Jadranska Hrvatska</t>
         </is>
       </c>
-      <c r="B52" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C52" s="11" t="inlineStr">
         <is>
           <t/>
@@ -6088,12 +6578,12 @@
       </c>
       <c r="F52" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G52" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H52" s="11" t="inlineStr">
@@ -6122,6 +6612,11 @@
         </is>
       </c>
       <c r="M52" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N52" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6130,14 +6625,14 @@
     <row r="53">
       <c r="A53" s="8" t="inlineStr">
         <is>
+          <t>HR04</t>
+        </is>
+      </c>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
           <t>Kontinentalna Hrvatska (NUTS 2016)</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C53" s="10" t="inlineStr">
         <is>
           <t/>
@@ -6155,12 +6650,12 @@
       </c>
       <c r="F53" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G53" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H53" s="10" t="inlineStr">
@@ -6189,6 +6684,11 @@
         </is>
       </c>
       <c r="M53" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N53" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6197,14 +6697,14 @@
     <row r="54">
       <c r="A54" s="8" t="inlineStr">
         <is>
+          <t>CH01</t>
+        </is>
+      </c>
+      <c r="B54" s="8" t="inlineStr">
+        <is>
           <t>Région lémanique</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C54" s="11" t="inlineStr">
         <is>
           <t/>
@@ -6222,12 +6722,12 @@
       </c>
       <c r="F54" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G54" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H54" s="11" t="inlineStr">
@@ -6256,6 +6756,11 @@
         </is>
       </c>
       <c r="M54" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N54" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6264,14 +6769,14 @@
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
+          <t>CH02</t>
+        </is>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
           <t>Espace Mittelland</t>
         </is>
       </c>
-      <c r="B55" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C55" s="10" t="inlineStr">
         <is>
           <t/>
@@ -6289,12 +6794,12 @@
       </c>
       <c r="F55" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G55" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H55" s="10" t="inlineStr">
@@ -6323,6 +6828,11 @@
         </is>
       </c>
       <c r="M55" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N55" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6331,14 +6841,14 @@
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
+          <t>CH03</t>
+        </is>
+      </c>
+      <c r="B56" s="8" t="inlineStr">
+        <is>
           <t>Nordwestschweiz</t>
         </is>
       </c>
-      <c r="B56" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C56" s="11" t="inlineStr">
         <is>
           <t/>
@@ -6356,12 +6866,12 @@
       </c>
       <c r="F56" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G56" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H56" s="11" t="inlineStr">
@@ -6390,6 +6900,11 @@
         </is>
       </c>
       <c r="M56" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N56" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6398,14 +6913,14 @@
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
+          <t>CH04</t>
+        </is>
+      </c>
+      <c r="B57" s="8" t="inlineStr">
+        <is>
           <t>Zürich</t>
         </is>
       </c>
-      <c r="B57" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C57" s="10" t="inlineStr">
         <is>
           <t/>
@@ -6423,12 +6938,12 @@
       </c>
       <c r="F57" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G57" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H57" s="10" t="inlineStr">
@@ -6457,6 +6972,11 @@
         </is>
       </c>
       <c r="M57" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N57" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6465,14 +6985,14 @@
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
+          <t>CH05</t>
+        </is>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
           <t>Ostschweiz</t>
         </is>
       </c>
-      <c r="B58" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C58" s="11" t="inlineStr">
         <is>
           <t/>
@@ -6490,12 +7010,12 @@
       </c>
       <c r="F58" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G58" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H58" s="11" t="inlineStr">
@@ -6524,6 +7044,11 @@
         </is>
       </c>
       <c r="M58" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N58" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6532,14 +7057,14 @@
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
+          <t>CH06</t>
+        </is>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
           <t>Zentralschweiz</t>
         </is>
       </c>
-      <c r="B59" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C59" s="10" t="inlineStr">
         <is>
           <t/>
@@ -6557,12 +7082,12 @@
       </c>
       <c r="F59" s="10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G59" s="10" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H59" s="10" t="inlineStr">
@@ -6591,6 +7116,11 @@
         </is>
       </c>
       <c r="M59" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N59" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6599,14 +7129,14 @@
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
+          <t>CH07</t>
+        </is>
+      </c>
+      <c r="B60" s="8" t="inlineStr">
+        <is>
           <t>Ticino</t>
         </is>
       </c>
-      <c r="B60" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C60" s="11" t="inlineStr">
         <is>
           <t/>
@@ -6624,12 +7154,12 @@
       </c>
       <c r="F60" s="11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t/>
         </is>
       </c>
       <c r="G60" s="11" t="inlineStr">
         <is>
-          <t/>
+          <t>b</t>
         </is>
       </c>
       <c r="H60" s="11" t="inlineStr">
@@ -6658,6 +7188,11 @@
         </is>
       </c>
       <c r="M60" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N60" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6697,6 +7232,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>